--- a/data/2025-02-23_Workout_SD.xlsx
+++ b/data/2025-02-23_Workout_SD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -254,13 +254,14 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,7 +772,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A225" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5882,11 +5883,11 @@
       <c r="D249" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E249">
-        <v>12.5</v>
+      <c r="E249" s="3">
+        <v>10</v>
       </c>
       <c r="F249">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" ht="14.25">
@@ -5903,10 +5904,10 @@
         <v>41</v>
       </c>
       <c r="E250" s="3">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="F250" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" ht="14.25">
@@ -5923,10 +5924,10 @@
         <v>41</v>
       </c>
       <c r="E251" s="3">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="F251" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" ht="14.25">
@@ -5944,7 +5945,7 @@
       </c>
       <c r="E252" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>59.599999999999994</v>
+        <v>-100</v>
       </c>
       <c r="F252">
         <v>10</v>
@@ -5965,7 +5966,7 @@
       </c>
       <c r="E253" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>59.599999999999994</v>
+        <v>-100</v>
       </c>
       <c r="F253" s="3">
         <v>10</v>
@@ -5986,7 +5987,7 @@
       </c>
       <c r="E254" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>59.599999999999994</v>
+        <v>-100</v>
       </c>
       <c r="F254" s="3">
         <v>10</v>
@@ -6007,7 +6008,7 @@
       </c>
       <c r="E255" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>59.599999999999994</v>
+        <v>-100</v>
       </c>
       <c r="F255" s="3">
         <v>10</v>
@@ -6027,10 +6028,10 @@
         <v>41</v>
       </c>
       <c r="E256">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="F256">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" ht="14.25">
@@ -6047,10 +6048,10 @@
         <v>41</v>
       </c>
       <c r="E257" s="3">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="F257" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" ht="14.25">
@@ -6067,10 +6068,10 @@
         <v>41</v>
       </c>
       <c r="E258" s="3">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="F258" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" ht="14.25">
@@ -6087,10 +6088,10 @@
         <v>41</v>
       </c>
       <c r="E259" s="3">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="F259" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" ht="14.25">
@@ -6107,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F260">
         <v>5</v>
@@ -6127,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="E261" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F261" s="3">
         <v>5</v>
@@ -6147,7 +6148,7 @@
         <v>12</v>
       </c>
       <c r="E262" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F262" s="3">
         <v>5</v>
@@ -6167,7 +6168,7 @@
         <v>12</v>
       </c>
       <c r="E263" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F263" s="3">
         <v>5</v>
@@ -6187,7 +6188,7 @@
         <v>12</v>
       </c>
       <c r="E264" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F264" s="3">
         <v>5</v>
@@ -6385,12 +6386,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="9.421875"/>
+    <col bestFit="1" min="1" max="1" width="10.8515625"/>
     <col customWidth="1" min="3" max="3" width="11.140625"/>
     <col customWidth="1" min="4" max="4" width="12.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -6409,24 +6413,244 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4">
+        <v>45436</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="4">
+        <v>45467</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4">
+        <v>45497</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4">
+        <v>45528</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4">
+        <v>45559</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4">
+        <v>45620</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="4">
+        <v>45650</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="4">
+        <v>45681</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="4">
         <v>45712</v>
       </c>
-      <c r="B2">
+      <c r="B13" s="3">
         <v>159.59999999999999</v>
       </c>
-      <c r="C2">
+      <c r="C13" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D2">
-        <f>1-C2</f>
+      <c r="D13" s="3">
+        <f>1-C13</f>
         <v>0.82299999999999995</v>
       </c>
-      <c r="E2">
-        <f>B2*(1-C2)</f>
+      <c r="E13" s="3">
+        <f>B13*(1-C13)</f>
         <v>131.35079999999999</v>
       </c>
-      <c r="F2">
-        <f>B2-E2</f>
+      <c r="F13" s="3">
+        <f>B13-E13</f>
         <v>28.249200000000002</v>
       </c>
     </row>

--- a/data/2025-02-23_Workout_SD.xlsx
+++ b/data/2025-02-23_Workout_SD.xlsx
@@ -772,7 +772,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A225" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A229" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E252" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>-100</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="F252">
         <v>10</v>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="E253" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>-100</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="F253" s="3">
         <v>10</v>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="E254" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>-100</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="F254" s="3">
         <v>10</v>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="E255" s="3">
         <f>Sheet4!$B$2-100</f>
-        <v>-100</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="F255" s="3">
         <v>10</v>
@@ -6411,249 +6411,40 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>45375</v>
+    <row r="2" ht="14.25">
+      <c r="A2" s="4">
+        <v>45712</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>159.59999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <f>1-C2</f>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <f>B2*(1-C2)</f>
+        <v>131.35079999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="2">
-        <v>45406</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="4">
-        <v>45436</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="4">
-        <v>45467</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="4">
-        <v>45497</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="4">
-        <v>45528</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="4">
-        <v>45559</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="4">
-        <v>45589</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="4">
-        <v>45620</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="4">
-        <v>45650</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="4">
-        <v>45681</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="4">
-        <v>45712</v>
-      </c>
-      <c r="B13" s="3">
-        <v>159.59999999999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D13" s="3">
-        <f>1-C13</f>
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="E13" s="3">
-        <f>B13*(1-C13)</f>
-        <v>131.35079999999999</v>
-      </c>
-      <c r="F13" s="3">
-        <f>B13-E13</f>
+        <f>B2-E2</f>
         <v>28.249200000000002</v>
       </c>
     </row>
+    <row r="3" ht="14.25"/>
+    <row r="4" ht="14.25"/>
+    <row r="5" ht="14.25"/>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/data/2025-02-23_Workout_SD.xlsx
+++ b/data/2025-02-23_Workout_SD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>date</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t xml:space="preserve">Back Extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith Machine Bench Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith Machine Close-Grip Bench Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assisted Dip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Fly</t>
   </si>
   <si>
     <t>part</t>
@@ -254,14 +266,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +783,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A250" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6192,6 +6203,470 @@
       </c>
       <c r="F264" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25">
+      <c r="A265" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>52</v>
+      </c>
+      <c r="D265" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265">
+        <v>90</v>
+      </c>
+      <c r="F265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25">
+      <c r="A266" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" s="3">
+        <v>90</v>
+      </c>
+      <c r="F266" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25">
+      <c r="A267" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="3">
+        <v>90</v>
+      </c>
+      <c r="F267" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25">
+      <c r="A268" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" s="3">
+        <v>90</v>
+      </c>
+      <c r="F268" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="A269" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" t="s">
+        <v>53</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269">
+        <v>70</v>
+      </c>
+      <c r="F269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="A270" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" s="3">
+        <v>70</v>
+      </c>
+      <c r="F270" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25">
+      <c r="A271" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="3">
+        <v>70</v>
+      </c>
+      <c r="F271" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25">
+      <c r="A272" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="3">
+        <v>70</v>
+      </c>
+      <c r="F272" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25">
+      <c r="A273" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>42</v>
+      </c>
+      <c r="D273" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273">
+        <v>25</v>
+      </c>
+      <c r="F273">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25">
+      <c r="A274" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" t="s">
+        <v>42</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E274" s="3">
+        <v>25</v>
+      </c>
+      <c r="F274" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25">
+      <c r="A275" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275" s="3">
+        <v>25</v>
+      </c>
+      <c r="F275" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25">
+      <c r="A276" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>54</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276">
+        <f>Sheet4!$B$2-85</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25">
+      <c r="A277" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277">
+        <f>Sheet4!$B$2-85</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F277" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25">
+      <c r="A278" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278">
+        <f>Sheet4!$B$2-100</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="F278" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25">
+      <c r="A279" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279">
+        <f>Sheet4!$B$2-100</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="F279" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25">
+      <c r="A280" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>33</v>
+      </c>
+      <c r="D280" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280">
+        <v>95</v>
+      </c>
+      <c r="F280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25">
+      <c r="A281" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" s="3">
+        <v>95</v>
+      </c>
+      <c r="F281" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25">
+      <c r="A282" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E282" s="3">
+        <v>95</v>
+      </c>
+      <c r="F282" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25">
+      <c r="A283" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" s="3">
+        <v>95</v>
+      </c>
+      <c r="F283" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25">
+      <c r="A284" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" t="s">
+        <v>55</v>
+      </c>
+      <c r="D284" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284">
+        <v>70</v>
+      </c>
+      <c r="F284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="A285" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D285" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="3">
+        <v>70</v>
+      </c>
+      <c r="F285" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25">
+      <c r="A286" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D286" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" s="3">
+        <v>70</v>
+      </c>
+      <c r="F286" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25">
+      <c r="A287" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D287" t="s">
+        <v>19</v>
+      </c>
+      <c r="E287" s="3">
+        <v>70</v>
+      </c>
+      <c r="F287" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6220,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -6231,7 +6706,7 @@
         <v>45711</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>37.5</v>
@@ -6242,7 +6717,7 @@
         <v>45711</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -6253,7 +6728,7 @@
         <v>45711</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>34</v>
@@ -6264,7 +6739,7 @@
         <v>45711</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>21.5</v>
@@ -6275,7 +6750,7 @@
         <v>45711</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>13.199999999999999</v>
@@ -6286,7 +6761,7 @@
         <v>45711</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -6297,7 +6772,7 @@
         <v>45711</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -6330,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -6341,7 +6816,7 @@
         <v>45711</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -6352,7 +6827,7 @@
         <v>45711</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -6363,7 +6838,7 @@
         <v>45711</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -6399,20 +6874,20 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>45712</v>
       </c>
       <c r="B2" s="3">
